--- a/Descargas/R15_11º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
+++ b/Descargas/R15_11º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Junio.xlsx
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B24" s="65">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B25" s="65">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26">
